--- a/biology/Botanique/Louis_Benech/Louis_Benech.xlsx
+++ b/biology/Botanique/Louis_Benech/Louis_Benech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Benech est un jardinier et paysagiste français né le 16 février 1957[1] à Neuilly-sur-Seine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Benech est un jardinier et paysagiste français né le 16 février 1957 à Neuilly-sur-Seine.
 Il acquiert une réputation internationale avec la rénovation du jardin des Tuileries, en 1990.
 </t>
         </is>
@@ -514,15 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Il est l'oncle germain de l'écrivain Clément Bénech[2]. Son père est architecte[3].
-Il a longtemps eu comme compagnon Christian Louboutin[4].
-Parcours
-Après une maîtrise de droit du travail et alors qu'il espérait être ingénieur eaux et forêts, il décroche un stage dans un cabinet d'avocats, idée qui ne lui plait guère[5]. Louis Benech devient ouvrier horticole en Angleterre aux réputées pépinières Hillier[6],[3] durant un an et demi[5]. Puis il part dans l'Eure, à la succursale française de ces pépinières anglaise[5]. Il devient jardinier dans une propriété privée de Normandie[7] au haras de Piencourt, qui lui vaut de trouver plusieurs autres clients, dont Marie-Hélène de Rothschild, Anne d'Ornano ou Pierre Bergé pour les jardins du château Gabriel[5].
-Il entame sa carrière de paysagiste à Paris en 1985. Deux ans plus tard, il se fait connaitre significativement[3]. En 1990 après avoir gagné le concours, il est chargé, avec Pascal Cribier et François Roubaud, du réaménagement de la partie ancienne des Tuileries[3],[8], « début d'une carrière nationale et internationale qui fait de lui l'un des paysagistes les plus en vue »[6] et les plus reconnus. Le chantier va s'étaler sur une dizaine d'années et lui « apporte la reconnaissance », les demandes se multiplient[5].
-Depuis, Louis Benech travaille sur de nombreux jardins déjà établis tels que les jardins de l'Élysée, le Quai d'Orsay, le domaine de Courson, la roseraie de Pavlovsk à Saint-Pétersbourg, le domaine impérial d'Achilleion à Corfou, le quadrilatère des Archives nationales[9] à Paris et au début des années 2010, la rénovation partielle du parc du domaine de Chaumont-sur-Loire[10],[11], un diagnostic sur le Château de Maisons-Laffitte et le bosquet du Théâtre d'Eau du château de Versailles[12].
-À l'aube des années 2020, il a conçu et réalisé avec son équipe parisienne plus de 500 projets de parcs et jardins, publics et privés[5]. Ses chantiers pour des particuliers le conduisent à travailler en France comme à l’étranger[3] (Grèce, Maroc, Portugal, Suisse, Égypte, Panama, Canada, États-Unis, Nouvelle-Zélande sur les îles Chatham pour le plus loin[5], etc.) ; de même que les commandes de grands institutionnels tels Axa (Hôtel de la Vaupalière à Paris en 2000), Suez (ancien Hôtel Suchet[13] à Paris en 2001), les jardins du château de Pange appartenant au conseil général de la Moselle[3], Hermès (Dosan Park[14] à Séoul en 2006 ; Ateliers de Pantin, depuis 2008).
-Sans avoir un style parfaitement défini[3], les réalisations de Louis Benech se caractérisent par un souci d'harmoniser le projet paysager et l'environnement architectural ou naturel du site, de créer des jardins pérennes (avec une nécessaire préoccupation écologique), et de conjuguer l'esthétique végétale à l'écosystème donné, à l'usage qui sera fait du jardin et aux contraintes techniques de l'entretien. Il tient compte des circulations et des perspectives[3].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'oncle germain de l'écrivain Clément Bénech. Son père est architecte.
+Il a longtemps eu comme compagnon Christian Louboutin.
 </t>
         </is>
       </c>
@@ -548,14 +559,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une maîtrise de droit du travail et alors qu'il espérait être ingénieur eaux et forêts, il décroche un stage dans un cabinet d'avocats, idée qui ne lui plait guère. Louis Benech devient ouvrier horticole en Angleterre aux réputées pépinières Hillier, durant un an et demi. Puis il part dans l'Eure, à la succursale française de ces pépinières anglaise. Il devient jardinier dans une propriété privée de Normandie au haras de Piencourt, qui lui vaut de trouver plusieurs autres clients, dont Marie-Hélène de Rothschild, Anne d'Ornano ou Pierre Bergé pour les jardins du château Gabriel.
+Il entame sa carrière de paysagiste à Paris en 1985. Deux ans plus tard, il se fait connaitre significativement. En 1990 après avoir gagné le concours, il est chargé, avec Pascal Cribier et François Roubaud, du réaménagement de la partie ancienne des Tuileries « début d'une carrière nationale et internationale qui fait de lui l'un des paysagistes les plus en vue » et les plus reconnus. Le chantier va s'étaler sur une dizaine d'années et lui « apporte la reconnaissance », les demandes se multiplient.
+Depuis, Louis Benech travaille sur de nombreux jardins déjà établis tels que les jardins de l'Élysée, le Quai d'Orsay, le domaine de Courson, la roseraie de Pavlovsk à Saint-Pétersbourg, le domaine impérial d'Achilleion à Corfou, le quadrilatère des Archives nationales à Paris et au début des années 2010, la rénovation partielle du parc du domaine de Chaumont-sur-Loire un diagnostic sur le Château de Maisons-Laffitte et le bosquet du Théâtre d'Eau du château de Versailles.
+À l'aube des années 2020, il a conçu et réalisé avec son équipe parisienne plus de 500 projets de parcs et jardins, publics et privés. Ses chantiers pour des particuliers le conduisent à travailler en France comme à l’étranger (Grèce, Maroc, Portugal, Suisse, Égypte, Panama, Canada, États-Unis, Nouvelle-Zélande sur les îles Chatham pour le plus loin, etc.) ; de même que les commandes de grands institutionnels tels Axa (Hôtel de la Vaupalière à Paris en 2000), Suez (ancien Hôtel Suchet à Paris en 2001), les jardins du château de Pange appartenant au conseil général de la Moselle, Hermès (Dosan Park à Séoul en 2006 ; Ateliers de Pantin, depuis 2008).
+Sans avoir un style parfaitement défini, les réalisations de Louis Benech se caractérisent par un souci d'harmoniser le projet paysager et l'environnement architectural ou naturel du site, de créer des jardins pérennes (avec une nécessaire préoccupation écologique), et de conjuguer l'esthétique végétale à l'écosystème donné, à l'usage qui sera fait du jardin et aux contraintes techniques de l'entretien. Il tient compte des circulations et des perspectives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louis_Benech</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Benech</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Quelques réalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pré du Goualoup du Domaine de Chaumont-sur-Loire (2011-2012)
-Promenade paysagère des jardins du quadrilatère des Archives nationales de Paris (2011)[15]
-Jardin de l’Hôtel Royal Monceau à Paris (2009-2010)[16]
+Promenade paysagère des jardins du quadrilatère des Archives nationales de Paris (2011)
+Jardin de l’Hôtel Royal Monceau à Paris (2009-2010)
 Jardin de l’hôtel Quinta da Romaneira (Portugal) (2007)
 Jardin de la Cathédrale Saint-Louis à la Nouvelle-Orléans (2009-2010) (U.S.A.)
 Jardins du Soleil et des Nuages du Château de Villandry (2007-2008)
@@ -572,37 +626,39 @@
 Jardin de Piencourt à Cormeilles (1985-1990)
 Roseraie du prieuré Saint-Michel à Vimoutiers
 Le jardin de la Maison des Lumières Denis Diderot à Langres (2012)
-On toit terrasse à New York en 2013 pour Diane von Fürstenberg[5]
+On toit terrasse à New York en 2013 pour Diane von Fürstenberg
 Jardin des ateliers Hermès de Pantin
 Jardin et patio de l'Hôtel Collège des Doctrinaires à Lectoure (2019)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Louis_Benech</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Louis_Benech</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Fonctions honorifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cofondateur du conservatoire des collections végétales spécialisées
 Membre de la Royal Horticultural Society
@@ -616,31 +672,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Louis_Benech</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Louis_Benech</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (2005)
  Chevalier de l'ordre des Arts et des Lettres[réf. nécessaire]</t>
